--- a/data_year/zb/城市概况/城市集中供热.xlsx
+++ b/data_year/zb/城市概况/城市集中供热.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,486 +478,339 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21.626618</v>
+        <v>43.5668</v>
       </c>
       <c r="C2" t="n">
-        <v>125194</v>
+        <v>224716</v>
       </c>
       <c r="D2" t="n">
-        <v>174442</v>
+        <v>315717</v>
       </c>
       <c r="E2" t="n">
-        <v>64263</v>
+        <v>124051</v>
       </c>
       <c r="F2" t="n">
-        <v>69447</v>
+        <v>66397</v>
       </c>
       <c r="G2" t="n">
-        <v>98262</v>
+        <v>105084</v>
       </c>
       <c r="H2" t="n">
-        <v>12775</v>
+        <v>15122</v>
       </c>
       <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25.20562</v>
+        <v>47.37844</v>
       </c>
       <c r="C3" t="n">
-        <v>139542</v>
+        <v>229251</v>
       </c>
       <c r="D3" t="n">
-        <v>197976</v>
+        <v>338752</v>
       </c>
       <c r="E3" t="n">
-        <v>71338</v>
+        <v>133965</v>
       </c>
       <c r="F3" t="n">
-        <v>71493</v>
+        <v>51780</v>
       </c>
       <c r="G3" t="n">
-        <v>106723</v>
+        <v>85274</v>
       </c>
       <c r="H3" t="n">
-        <v>14772</v>
+        <v>13388</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26.58531</v>
+        <v>51.8368</v>
       </c>
       <c r="C4" t="n">
-        <v>148011</v>
+        <v>243817.66</v>
       </c>
       <c r="D4" t="n">
-        <v>217699</v>
+        <v>365277.63</v>
       </c>
       <c r="E4" t="n">
-        <v>79943</v>
+        <v>147389.93</v>
       </c>
       <c r="F4" t="n">
-        <v>67794</v>
+        <v>51609</v>
       </c>
       <c r="G4" t="n">
-        <v>95204</v>
+        <v>86452.46000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>14012</v>
+        <v>12689.86</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>30.0591</v>
+        <v>57.167658</v>
       </c>
       <c r="C5" t="n">
-        <v>158641</v>
+        <v>266461.62</v>
       </c>
       <c r="D5" t="n">
-        <v>224660</v>
+        <v>403541.58</v>
       </c>
       <c r="E5" t="n">
-        <v>88870</v>
+        <v>165876.68</v>
       </c>
       <c r="F5" t="n">
-        <v>66374</v>
+        <v>53241.58</v>
       </c>
       <c r="G5" t="n">
-        <v>94009</v>
+        <v>84362.35000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>14116</v>
+        <v>12259.39</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34.89475</v>
+        <v>61.124586</v>
       </c>
       <c r="C6" t="n">
-        <v>187467</v>
+        <v>276546.48</v>
       </c>
       <c r="D6" t="n">
-        <v>305695</v>
+        <v>447068.31</v>
       </c>
       <c r="E6" t="n">
-        <v>104551</v>
+        <v>174708.06</v>
       </c>
       <c r="F6" t="n">
-        <v>69082</v>
+        <v>55613.97</v>
       </c>
       <c r="G6" t="n">
-        <v>94454</v>
+        <v>84664.13</v>
       </c>
       <c r="H6" t="n">
-        <v>16045</v>
+        <v>12476.12</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>37.95741</v>
+        <v>67.22048700000001</v>
       </c>
       <c r="C7" t="n">
-        <v>200051</v>
+        <v>302109.89</v>
       </c>
       <c r="D7" t="n">
-        <v>286106</v>
+        <v>472556</v>
       </c>
       <c r="E7" t="n">
-        <v>110490</v>
+        <v>192721.03</v>
       </c>
       <c r="F7" t="n">
-        <v>63137</v>
+        <v>49702.94</v>
       </c>
       <c r="G7" t="n">
-        <v>93193</v>
+        <v>80699</v>
       </c>
       <c r="H7" t="n">
-        <v>14317</v>
+        <v>11692.08</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>43.5668</v>
+        <v>73.866325</v>
       </c>
       <c r="C8" t="n">
-        <v>224716</v>
+        <v>318043.85</v>
       </c>
       <c r="D8" t="n">
-        <v>315717</v>
+        <v>493254</v>
       </c>
       <c r="E8" t="n">
-        <v>124051</v>
+        <v>201389.06</v>
       </c>
       <c r="F8" t="n">
-        <v>66397</v>
+        <v>41501.29</v>
       </c>
       <c r="G8" t="n">
-        <v>105084</v>
+        <v>78307</v>
       </c>
       <c r="H8" t="n">
-        <v>15122</v>
+        <v>12179.77</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>47.37844</v>
+        <v>83.08578</v>
       </c>
       <c r="C9" t="n">
-        <v>229251</v>
+        <v>310300</v>
       </c>
       <c r="D9" t="n">
-        <v>338752</v>
-      </c>
-      <c r="E9" t="n">
-        <v>133965</v>
-      </c>
+        <v>647827</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>51780</v>
+        <v>57985</v>
       </c>
       <c r="G9" t="n">
-        <v>85274</v>
-      </c>
-      <c r="H9" t="n">
-        <v>13388</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>98328</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>276288</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51.8368</v>
+        <v>87.804997</v>
       </c>
       <c r="C10" t="n">
-        <v>243817.66</v>
+        <v>323664.6</v>
       </c>
       <c r="D10" t="n">
-        <v>365277.63</v>
-      </c>
-      <c r="E10" t="n">
-        <v>147389.93</v>
-      </c>
+        <v>578244</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>51609</v>
+        <v>57731.49</v>
       </c>
       <c r="G10" t="n">
-        <v>86452.46000000001</v>
-      </c>
-      <c r="H10" t="n">
-        <v>12689.86</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>92322</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>371120.39</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>57.167658</v>
+        <v>92.513684</v>
       </c>
       <c r="C11" t="n">
-        <v>266461.62</v>
+        <v>327475.14</v>
       </c>
       <c r="D11" t="n">
-        <v>403541.58</v>
-      </c>
-      <c r="E11" t="n">
-        <v>165876.68</v>
-      </c>
+        <v>550530</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>53241.58</v>
+        <v>65067.48</v>
       </c>
       <c r="G11" t="n">
-        <v>84362.35000000001</v>
-      </c>
-      <c r="H11" t="n">
-        <v>12259.39</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>100943</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>392916.91</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>61.124586</v>
+        <v>98.82091</v>
       </c>
       <c r="C12" t="n">
-        <v>276546.48</v>
+        <v>345003.52</v>
       </c>
       <c r="D12" t="n">
-        <v>447068.31</v>
-      </c>
-      <c r="E12" t="n">
-        <v>174708.06</v>
-      </c>
+        <v>566181</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>55613.97</v>
+        <v>65053.54</v>
       </c>
       <c r="G12" t="n">
-        <v>84664.13</v>
-      </c>
-      <c r="H12" t="n">
-        <v>12476.12</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>103471</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>425982.44</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>67.22048700000001</v>
+        <v>106.031613</v>
       </c>
       <c r="C13" t="n">
-        <v>302109.89</v>
+        <v>357715.4</v>
       </c>
       <c r="D13" t="n">
-        <v>472556.31</v>
-      </c>
-      <c r="E13" t="n">
-        <v>192721.03</v>
-      </c>
+        <v>593225.61</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>49702.94</v>
+        <v>68163.69</v>
       </c>
       <c r="G13" t="n">
-        <v>80698.74000000001</v>
-      </c>
-      <c r="H13" t="n">
-        <v>11692.08</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>73.866325</v>
-      </c>
-      <c r="C14" t="n">
-        <v>318043.85</v>
-      </c>
-      <c r="D14" t="n">
-        <v>493254.41</v>
-      </c>
-      <c r="E14" t="n">
-        <v>201389.06</v>
-      </c>
-      <c r="F14" t="n">
-        <v>41501.29</v>
-      </c>
-      <c r="G14" t="n">
-        <v>78307.05</v>
-      </c>
-      <c r="H14" t="n">
-        <v>12179.77</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>83.08578</v>
-      </c>
-      <c r="C15" t="n">
-        <v>310300</v>
-      </c>
-      <c r="D15" t="n">
-        <v>647827</v>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
-        <v>57985</v>
-      </c>
-      <c r="G15" t="n">
-        <v>98328</v>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="n">
-        <v>276288</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>87.804997</v>
-      </c>
-      <c r="C16" t="n">
-        <v>323664.6</v>
-      </c>
-      <c r="D16" t="n">
-        <v>578244.25</v>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="n">
-        <v>57731.49</v>
-      </c>
-      <c r="G16" t="n">
-        <v>92321.62</v>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="n">
-        <v>371120.39</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>92.513684</v>
-      </c>
-      <c r="C17" t="n">
-        <v>327475.14</v>
-      </c>
-      <c r="D17" t="n">
-        <v>550529.51</v>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="n">
-        <v>65067.48</v>
-      </c>
-      <c r="G17" t="n">
-        <v>100943.4</v>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="n">
-        <v>392916.91</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>98.82091</v>
-      </c>
-      <c r="C18" t="n">
-        <v>345003.52</v>
-      </c>
-      <c r="D18" t="n">
-        <v>566180.75</v>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="n">
-        <v>65053.54</v>
-      </c>
-      <c r="G18" t="n">
-        <v>103471.48</v>
-      </c>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="n">
-        <v>425982.44</v>
+        <v>118783.71</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>461492.98</v>
       </c>
     </row>
   </sheetData>
